--- a/output/fit_clients/fit_round_34.xlsx
+++ b/output/fit_clients/fit_round_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7205834866.779054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004760222120128471</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.548407380740736</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9377143559707009</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.548407380740736</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6424452392.066512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004089300217214763</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9596273225677682</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.41019752351141</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.18041167273757</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.41019752351141</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6198676853.155788</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003635936831386262</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.108828248540784</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9923985317516091</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.108828248540784</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>5134505354.074009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003974016388224068</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.025341788534613</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8089721377037324</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.025341788534613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5723033537.422915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002279779962473443</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.863542106783536</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8488240067325762</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.863542106783536</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>9154647534.157328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001006141918886909</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.000759916214215</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.956897731544982</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.000759916214215</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5438960543.71028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002784752331251788</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8794419734610321</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.940363805436773</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.149547699276388</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.940363805436773</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6920290702.513392</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003588013816586538</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.136317698354429</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9541939702063255</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.136317698354429</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4637548680.74165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004651385850380172</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.196692332162611</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9321642374702509</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.196692332162611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4548455044.632236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00096296158475769</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.8300841814712731</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.849714165326187</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.9137795564169743</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.849714165326187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8970542437.826262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001409448579859534</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.124042223784415</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.002449240361517</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.124042223784415</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4070632687.220779</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003815978994272419</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.020141410814756</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.014100029789252</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.020141410814756</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6500641389.839161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002839527994054187</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.426723728095334</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8796620697880239</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.426723728095334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6171002786.653681</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004047061006416553</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.31238765256692</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9408410126704945</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.31238765256692</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7025941641.870155</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003822970813209505</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.76546515688409</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.91456376191592</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.76546515688409</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6234848928.62635</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00258496868918766</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.951005911276754</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.952549647218396</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.951005911276754</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5637132143.265996</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008057178175361286</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.220457195350249</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9862831335009349</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.220457195350249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3260157941.058866</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002026961157331934</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.910694052443572</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8647764737528515</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.910694052443572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5558638992.172128</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0012945636217792</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.968965642998024</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8340495523677391</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.968965642998024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6370590181.135331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.006040463222581944</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.217616123663994</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8356895064387861</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.217616123663994</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5939970073.611988</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004029383578449575</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.255456155104149</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8863387211116004</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.255456155104149</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7352099288.739918</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001417163107452609</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.713246794542412</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8315309138182407</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.713246794542412</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7506401571.576107</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004843347584843042</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4432804353841384</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.542817820949915</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.7830446244879452</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.542817820949915</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6321669945.280197</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003224261251652695</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.756800968098045</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9303146824488721</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.756800968098045</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5690869095.443778</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001399673565472138</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8476117741745963</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.883427815523407</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9816420548790392</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.883427815523407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5328873597.694709</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003601698704427448</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
         <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.09673091020605103</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.075838910971123</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.3147062830190889</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.075838910971123</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6585052137.678504</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004823311921184163</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.462661074651754</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.898340197199211</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.462661074651754</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5944811044.009689</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001200081381757153</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.137002735644351</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.997259460585022</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.137002735644351</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6163710832.708302</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003878006400582753</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.095935043378508</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.875913978323775</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.095935043378508</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5024099561.189658</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002137075451935413</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.509150609200497</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9726669265938966</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.509150609200497</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4696187180.140513</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001076350826139132</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.983548918240372</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9458033316446353</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.983548918240372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6998525746.342027</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.00309118749768794</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.790544507309114</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.841272299674221</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.790544507309114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4887625068.207541</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005088125276505407</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.298759023460331</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.821942225540332</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.298759023460331</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6279596400.469871</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001699799313299709</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.025697509957403</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.236672326695125</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.025697509957403</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>4927162773.113309</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.00371121484609972</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.693068448319363</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.022772428092317</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.693068448319363</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5978525192.942051</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005968963326257137</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.399139217502928</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.005023191453413</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.399139217502928</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3874978481.856605</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003949194708293744</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.614642024672365</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9213471289041184</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.614642024672365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4525186870.748564</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002229729725610216</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.890959780235555</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8631917829713975</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.890959780235555</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4520311536.201665</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003161108378459084</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.886772611974346</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.996040958613441</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.886772611974346</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6627127834.246947</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001295612384450286</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.052763608443608</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9393846473919858</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.052763608443608</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5756603388.639072</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004043386036806216</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.929559977914144</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.006581798822839</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.929559977914144</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4396576397.909853</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003983249309179565</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.816109663636329</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9314295560776221</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.816109663636329</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5070895344.007184</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002018264646282387</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.171943091064036</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9196440776613762</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.171943091064036</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4238472591.4389</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001452666986259733</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3989911746883656</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.508600060129426</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6829597483293054</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.508600060129426</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7402164199.775438</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004338443490391779</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.250912453224754</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8081254679178281</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.250912453224754</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9689256199.321474</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003281925779694229</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.948933338456165</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9260325054206467</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.948933338456165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7393105399.623692</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002263534506741287</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9857182301072748</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.199684202725837</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.246795985195231</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-5.199684202725837</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5048897791.63681</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004858708715259505</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.357907586223917</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8711617870424191</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.357907586223917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6154942988.661792</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003045027175558635</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.224545727364994</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.035389031781382</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.224545727364994</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5309293678.554494</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004546462032822987</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2852127210515778</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.293559581763231</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.5277662257737417</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.293559581763231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8381739908.96615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002021327568748226</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.368485062310657</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8459836224676326</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.368485062310657</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6157322644.507562</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00311655062739584</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.24083951351842</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9004516078491959</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.24083951351842</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4305615747.595383</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003492991712808898</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.971807171894596</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8256949041454831</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.971807171894596</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8237029004.054295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004044752880897771</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.426944060495037</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9132349282189404</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.426944060495037</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5441595638.715132</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002182321818552266</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.732171886437347</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9202200401995447</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.732171886437347</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6472962072.373902</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002889254548372854</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.98926763783335</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8585748930087781</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.98926763783335</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4585988580.305084</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002188698385150098</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>11</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.629835734497917</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7679445243244377</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.629835734497917</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6705764138.355095</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004240935070664219</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.014113556028402</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8553284188263997</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.014113556028402</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5042701568.027955</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002846119051739341</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.574537333998073</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8523025097899491</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.574537333998073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7223088164.479739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004922140672521659</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.723648479647478</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9353094479089739</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.723648479647478</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6081509048.218814</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004101576381032649</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.017131932378772</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8713644990121397</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.017131932378772</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8788160778.192261</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005114169853269866</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.188000884652912</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9107653836599719</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.188000884652912</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4696968022.202626</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004307861587306242</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.445484538104066</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9273430010445902</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.445484538104066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6781316422.740849</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005832943473020226</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.48236641399526</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.036049996292035</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.48236641399526</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5936621054.551682</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003289350047267727</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9590395533106584</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.262086944367834</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.146996396535571</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.262086944367834</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5735756408.927066</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005049937480689624</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.356349936889695</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9421541422044458</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.356349936889695</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7754744270.613356</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002413674588678773</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.563219448968066</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.763676966327076</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.563219448968066</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4853197833.512687</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009590493067018148</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.769337232770236</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9674999396642361</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.769337232770236</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5983240123.734154</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003938611648620702</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.968352208963564</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9342226339862387</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.968352208963564</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3357600735.520253</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002621585673501584</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7394359537594226</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4.43913171823425</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9148868135986741</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-4.43913171823425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8102763934.724169</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001565480483240509</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.028684572243962</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.077299956431431</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-4.028684572243962</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5009134932.57336</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009063497091223001</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.467406071599474</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3429971702850177</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.467406071599474</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5360582308.679824</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004400773550708793</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.372011149738243</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8689792120808509</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.372011149738243</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6436172005.322663</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002819141205949384</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.134895945950344</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8369304395987235</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.134895945950344</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5607734166.362172</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00290279098147312</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.31501560893949</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9187071627882134</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.31501560893949</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7679706962.996221</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004048152159574879</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.191269780886659</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.017187040392769</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.191269780886659</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7448385716.098332</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003286269047415845</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.975322601528172</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.472518994814972</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.194132749292754</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.472518994814972</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8215394101.501289</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002069441970220564</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.409181500397142</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.977467688016779</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.409181500397142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7461399230.642796</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003408364682605676</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.7330805043011</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9801072476901136</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.7330805043011</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5548626408.869146</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004181698121112369</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.3569627370653466</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.077834436792545</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.7273197368052789</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.077834436792545</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6741042937.21837</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004970279198066059</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.230769231022474</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9659009301928891</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.230769231022474</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9868457038.927893</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002802780055535469</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>13</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8887158283336573</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.500141504571084</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9803846645670597</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.500141504571084</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5601126410.564896</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005394916983332064</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.025041229876745</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9353094479089739</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.025041229876745</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4355737370.620071</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003232035857619844</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.166389006155977</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9130415123001345</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.166389006155977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8948738879.547995</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002102842751098467</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
         <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.315414616504735</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.962649470068441</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.315414616504735</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3256423243.406922</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001636813065458933</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.036867963350407</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9744360970982987</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.036867963350407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6793248889.570892</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003611465289735399</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7544740765343338</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.985180528320364</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9103018654191503</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.985180528320364</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7925458782.752813</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003837763983435894</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.03568735573577062</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.331314961373422</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.4167782942790456</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.331314961373422</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5664598339.746884</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00314285568075916</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.2896429823103987</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.98123297654932</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.4829679225602087</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.98123297654932</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5189875523.882324</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004039994536506806</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.135545692952395</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8711869117831994</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.135545692952395</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3514783825.554838</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00417154284274609</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.509462302281156</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.032698554409864</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.509462302281156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6460448535.695139</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001249112971931351</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.453136786127135</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9278905961018189</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.453136786127135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7615936793.006545</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001320946425303873</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.321020549397519</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.061296154001886</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.321020549397519</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7487524728.514994</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002481617732719826</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.965782470578335</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9349551205997664</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.965782470578335</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7398430742.268264</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00244553678935265</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.828784778465382</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8847431723702973</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.828784778465382</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5423825365.380034</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004176347508927062</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.17290214030624</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9170230774934492</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.17290214030624</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8843653108.954248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003207186106914063</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8781049135986405</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.513155538281299</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.062006985917178</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.513155538281299</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3441904886.804142</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005010871317159604</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.27441961578748</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.896987329572258</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.27441961578748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4164197479.662697</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002768154985153772</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.157596956199598</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7951796503604103</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.157596956199598</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6935371049.311485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001413520541934618</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.630204236264424</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.720546009916106</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.896026724374835</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.720546009916106</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_34.xlsx
+++ b/output/fit_clients/fit_round_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7205834866.779054</v>
+        <v>2086010246.164584</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004760222120128471</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.09059305718066152</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04349358484232283</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1043005130.089972</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6424452392.066512</v>
+        <v>1705232646.52147</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004089300217214763</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1824966279684009</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04973662649491715</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="J3" t="n">
+        <v>852616317.4639493</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6198676853.155788</v>
+        <v>4705297315.940841</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003635936831386262</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1331396821063635</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02999295399160773</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2352648721.923259</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>5134505354.074009</v>
+        <v>3697654085.900213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003974016388224068</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09635757860809065</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03802523498191686</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1848827066.457139</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5723033537.422915</v>
+        <v>2377687221.992936</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002279779962473443</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.1047196359987259</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04072817730873015</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1188843599.549341</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>9154647534.157328</v>
+        <v>2902414198.727764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001006141918886909</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11</v>
+        <v>0.07424354997443564</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03923190256680554</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1451207073.429931</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3346123272.331443</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2193511069574655</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02623561675481559</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5438960543.71028</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.002784752331251788</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1673061728.881735</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6920290702.513392</v>
+        <v>1505026380.367757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003588013816586538</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>0.126401501166254</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03019762083484518</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>752513285.2948351</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4637548680.74165</v>
+        <v>4501246477.617812</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004651385850380172</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1744744981255955</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03937004936612627</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2250623299.328294</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4548455044.632236</v>
+        <v>3471273764.766541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00096296158475769</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1750781164547301</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03164828192467724</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1735636858.031601</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8970542437.826262</v>
+        <v>2118159053.835141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001409448579859534</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+        <v>0.1760595708589581</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03616143443984726</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1059079463.990672</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4070632687.220779</v>
+        <v>3755873430.27594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003815978994272419</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.06745893011795051</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02606687986272887</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1877936782.284591</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6500641389.839161</v>
+        <v>2683640781.336731</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002839527994054187</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
+        <v>0.1302037456856291</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03353471596821451</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1341820447.843444</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6171002786.653681</v>
+        <v>1188808391.368556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004047061006416553</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
+        <v>0.08648048771459316</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03528276250140504</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>594404210.4563601</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7025941641.870155</v>
+        <v>2860850835.194964</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003822970813209505</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>11</v>
+        <v>0.1026721232256934</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0481887347962171</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1430425415.972602</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6234848928.62635</v>
+        <v>4571313960.655604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00258496868918766</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
+        <v>0.1063295813536489</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04894847130479155</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2285656986.52291</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5637132143.265996</v>
+        <v>3682434896.80585</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008057178175361286</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
+        <v>0.1459003843611628</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0245054983474546</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1841217429.058678</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3260157941.058866</v>
+        <v>979288046.6319246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002026961157331934</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1611011915255999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02597940254011357</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>489644047.327862</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5558638992.172128</v>
+        <v>2402779036.412679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0012945636217792</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1426629228072858</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02732538145855739</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1201389501.468744</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6370590181.135331</v>
+        <v>2029679126.842452</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006040463222581944</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
+        <v>0.08613441543037366</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04188735933927042</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1014839596.343236</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3744853472.195204</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.124344663248844</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03902453718508626</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5939970073.611988</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.004029383578449575</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1872426752.834713</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7352099288.739918</v>
+        <v>1042078709.082003</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001417163107452609</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+        <v>0.1689199054919285</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05185514328249026</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>521039417.4608634</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7506401571.576107</v>
+        <v>2774996006.424009</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004843347584843042</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1453079733996315</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0319353756447583</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1387498053.415663</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6321669945.280197</v>
+        <v>1313912501.641281</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003224261251652695</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
+        <v>0.07988990053248309</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03049568286645074</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>656956242.3839917</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5690869095.443778</v>
+        <v>1272301121.566224</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001399673565472138</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08628156890518346</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03501402099766312</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>636150599.3243054</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5328873597.694709</v>
+        <v>3269243300.912354</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003601698704427448</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
+        <v>0.1328234784176746</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02684668780084683</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1634621696.728269</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3509718049.048138</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1412014752926523</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03552015087630676</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6585052137.678504</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004823311921184163</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
+      <c r="I28" t="n">
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1754859079.821654</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5944811044.009689</v>
+        <v>3911385122.329576</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001200081381757153</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
+        <v>0.09398569585174206</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04660250108473325</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1955692584.029127</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6163710832.708302</v>
+        <v>2203823937.463278</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003878006400582753</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11</v>
+        <v>0.1053149105739249</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03012336853692979</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1101912029.193881</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5024099561.189658</v>
+        <v>992137998.4841007</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002137075451935413</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.09444936948598044</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03535735527397258</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>496068999.4223352</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4696187180.140513</v>
+        <v>1770575273.70997</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001076350826139132</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1056621933524344</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03777712061952175</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>885287761.0818291</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>488</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2895676263.646182</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1389271441112008</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05597914231826922</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
-        <v>470</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6998525746.342027</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.00309118749768794</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1447838136.167454</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4887625068.207541</v>
+        <v>1527841376.270681</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005088125276505407</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>11</v>
+        <v>0.1123757015990624</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02674944968396929</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>763920639.2069656</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6279596400.469871</v>
+        <v>821242815.0735908</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001699799313299709</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
+        <v>0.09702530786648329</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03876774339087165</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>410621465.1506718</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>4927162773.113309</v>
+        <v>3225013722.489644</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00371121484609972</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
+        <v>0.1359790652896471</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02761463622905133</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1612506824.925122</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5978525192.942051</v>
+        <v>2297581522.066603</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005968963326257137</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
+        <v>0.08393840840657574</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02994940510347514</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1148790829.071556</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3874978481.856605</v>
+        <v>1410520921.047917</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003949194708293744</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1150779037610332</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0259217149861017</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>705260522.1988825</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4525186870.748564</v>
+        <v>1352685439.302598</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002229729725610216</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>0.1497949473475877</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02033793328258494</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>676342812.2095177</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4520311536.201665</v>
+        <v>1277782016.50348</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003161108378459084</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.1359392690311678</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03719122497450478</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>638891029.9215974</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6627127834.246947</v>
+        <v>2721471509.368328</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001295612384450286</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1334831188675084</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03046806267161454</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1360735758.113195</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5756603388.639072</v>
+        <v>4315077402.652411</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004043386036806216</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
+        <v>0.09069670716574529</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03656509908523675</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2157538752.162204</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4396576397.909853</v>
+        <v>2620066443.27143</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003983249309179565</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1911878546390303</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0248727178598485</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1310033258.047488</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5070895344.007184</v>
+        <v>2024655715.710875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002018264646282387</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
+        <v>0.08265866501501094</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0231463869173353</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1012327968.93938</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4238472591.4389</v>
+        <v>2016666919.931293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001452666986259733</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1442958503313254</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05624206694509883</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1008333452.336522</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7402164199.775438</v>
+        <v>3909929348.283045</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004338443490391779</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+        <v>0.13675709832752</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04089670185441985</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1954964638.333653</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9689256199.321474</v>
+        <v>3277264739.223085</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003281925779694229</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1959808624151626</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05195769040749254</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1638632327.568299</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7393105399.623692</v>
+        <v>3118658724.106749</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002263534506741287</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.08673139254105737</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03499548839084005</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1559329447.427151</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5048897791.63681</v>
+        <v>1392348875.733306</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004858708715259505</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1201550452911579</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03739938310087168</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>696174486.4791559</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6154942988.661792</v>
+        <v>3065765186.219401</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003045027175558635</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.1348291144415961</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03310107726503632</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1532882648.100234</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5309293678.554494</v>
+        <v>1381797414.128157</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004546462032822987</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1933459955207008</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04822637070296239</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>690898728.9622777</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8381739908.96615</v>
+        <v>4251485571.036584</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002021327568748226</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.09761082938677648</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06082383306263141</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>8</v>
+      <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2125742827.025883</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6157322644.507562</v>
+        <v>2923898645.324926</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00311655062739584</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
+        <v>0.1253916109741821</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03150392297463783</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1461949360.141629</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4305615747.595383</v>
+        <v>4885044134.164828</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003492991712808898</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
+        <v>0.1203431856276106</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04310659472431878</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2442522200.389847</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8237029004.054295</v>
+        <v>3824225417.038597</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004044752880897771</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>11</v>
+        <v>0.2035042254404129</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03083821916570265</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1912112675.527155</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5441595638.715132</v>
+        <v>1752017011.743726</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002182321818552266</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1553762480612976</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0366089040211995</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>876008510.6406537</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6472962072.373902</v>
+        <v>4322011811.254728</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002889254548372854</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1777476471220365</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02186880462561134</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2161006020.842171</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4585988580.305084</v>
+        <v>1427265562.030411</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002188698385150098</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.133997742307171</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02846913869985858</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>713632818.5904902</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6705764138.355095</v>
+        <v>3936890668.012495</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004240935070664219</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1038357682293632</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03184177737102706</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1968445312.79771</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5042701568.027955</v>
+        <v>2807882418.211292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002846119051739341</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1322543196862175</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03209048496119896</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1403941259.130923</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7223088164.479739</v>
+        <v>3342272170.989071</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004922140672521659</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
+        <v>0.1371892624351024</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02017531471608629</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1671136033.501137</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6081509048.218814</v>
+        <v>1695595055.261602</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004101576381032649</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
+        <v>0.1504669595590541</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0420001292830326</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>847797539.8781</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8788160778.192261</v>
+        <v>4517329346.614287</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005114169853269866</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
+        <v>0.07167273357624555</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03782055942399471</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2258664712.408064</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4696968022.202626</v>
+        <v>4034666196.589283</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004307861587306242</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1410280278061724</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03070929371875585</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2017333136.408953</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6781316422.740849</v>
+        <v>5723177019.977515</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005832943473020226</v>
-      </c>
-      <c r="G65" t="b">
+        <v>0.108074406354194</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03212024350319902</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>7</v>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2861588425.574595</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5936621054.551682</v>
+        <v>4825699047.678215</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003289350047267727</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.1490139376618139</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04234872093162215</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2412849541.504764</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5735756408.927066</v>
+        <v>3508396208.658479</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005049937480689624</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09238742717163034</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0455690287489497</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1754198079.425596</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7754744270.613356</v>
+        <v>4704031932.884679</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002413674588678773</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
+        <v>0.1176868208684504</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03305805983520665</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2352016004.713713</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4853197833.512687</v>
+        <v>2480290131.52838</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009590493067018148</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1518722428033547</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03705628885011474</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1240145132.651989</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5983240123.734154</v>
+        <v>2719551650.314103</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003938611648620702</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
+        <v>0.07140964378992479</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04487610858153945</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1359775783.713818</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3357600735.520253</v>
+        <v>3614835921.370228</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002621585673501584</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.171548771489049</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02135683358065056</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1807417962.811032</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8102763934.724169</v>
+        <v>1986260379.262247</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001565480483240509</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>7</v>
+        <v>0.09691865786517698</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03650653202676341</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>993130138.0027785</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5009134932.57336</v>
+        <v>2584739742.387394</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009063497091223001</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8</v>
+        <v>0.0788993698558296</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03302814643296451</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1292369904.976059</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5360582308.679824</v>
+        <v>3431754381.644697</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004400773550708793</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1679237503812732</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02878436144579172</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1715877218.739923</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6436172005.322663</v>
+        <v>1876581737.953968</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002819141205949384</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
+        <v>0.1074336432163807</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03724778386531059</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>938290844.5362232</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5607734166.362172</v>
+        <v>4213804325.126444</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00290279098147312</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.09571204645789919</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0245906678203038</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2106902156.079952</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7679706962.996221</v>
+        <v>1407920389.412604</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004048152159574879</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1206140057360197</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03046415189291748</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>703960168.5897335</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7448385716.098332</v>
+        <v>2935273779.21093</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003286269047415845</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.118602640893358</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0449460376047045</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1467636931.395819</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8215394101.501289</v>
+        <v>1490168293.830046</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002069441970220564</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.1217238230707326</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03046497043899179</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>745084179.2525241</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7461399230.642796</v>
+        <v>3617402033.799979</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003408364682605676</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.07308547195865558</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02394747583306733</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1808700997.17959</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5548626408.869146</v>
+        <v>3763981079.970295</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004181698121112369</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.1223477930134346</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0272350564977689</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1881990494.229438</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6741042937.21837</v>
+        <v>4141521188.310495</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004970279198066059</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+        <v>0.1596912191680351</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02069688696262422</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2070760625.87201</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9868457038.927893</v>
+        <v>1956059532.733223</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002802780055535469</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.09791357738661204</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03458305026060514</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>978029746.0552548</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5601126410.564896</v>
+        <v>2405480452.628207</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005394916983332064</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
+        <v>0.0861675245313084</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04262728015022927</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1202740171.757402</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4355737370.620071</v>
+        <v>3426736217.953363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003232035857619844</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1427754207351653</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04311383893902209</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1713368216.041962</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8948738879.547995</v>
+        <v>2022589402.908698</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002102842751098467</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1321286041735669</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02391373706396066</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1011294732.069692</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3256423243.406922</v>
+        <v>911515061.4169282</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001636813065458933</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1411993314499534</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02951375963047016</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>455757512.1557873</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6793248889.570892</v>
+        <v>2523622081.129281</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003611465289735399</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>8</v>
+        <v>0.1110152515156126</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03469862853198722</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1261811023.74193</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7925458782.752813</v>
+        <v>2556047944.653852</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003837763983435894</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>7</v>
+        <v>0.1332161138601781</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03519796465954658</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1278024042.82122</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5664598339.746884</v>
+        <v>2044188587.616503</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00314285568075916</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
+        <v>0.116338745285072</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04419694047723176</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1022094371.956884</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5189875523.882324</v>
+        <v>1633575806.455478</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004039994536506806</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>10</v>
+        <v>0.1643451551677796</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05622881820990441</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>816787924.1543295</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3514783825.554838</v>
+        <v>2565061840.934677</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00417154284274609</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06848012004567576</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04375402286182937</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1282530909.163029</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6460448535.695139</v>
+        <v>4011191759.164424</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001249112971931351</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>12</v>
+        <v>0.1305052084673483</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0496482133058153</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2005595879.280085</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7615936793.006545</v>
+        <v>1626329565.66698</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001320946425303873</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>11</v>
+        <v>0.1425840993056141</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02697920176294469</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>813164732.3529674</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7487524728.514994</v>
+        <v>3011236145.500419</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002481617732719826</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>9</v>
+        <v>0.1351361578997724</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04923037973915389</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1505618071.49875</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7398430742.268264</v>
+        <v>1992968238.622246</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00244553678935265</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>9</v>
+        <v>0.1026528141650081</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04635352274005335</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>996484106.8650919</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5423825365.380034</v>
+        <v>3631072429.966707</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004176347508927062</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>9</v>
+        <v>0.1556351444377967</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02706561213318325</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1815536241.505008</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8843653108.954248</v>
+        <v>3418012368.898818</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003207186106914063</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>13</v>
+        <v>0.1193148854066035</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.030614135878629</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1709006197.32899</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3441904886.804142</v>
+        <v>3332299259.621531</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005010871317159604</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.120840435155441</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02967078690213598</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1666149639.731342</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4164197479.662697</v>
+        <v>4206208082.428212</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002768154985153772</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1121911592644757</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01873586631612381</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2103104128.135836</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6935371049.311485</v>
+        <v>3449516567.711571</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001413520541934618</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>11</v>
+        <v>0.1987495616805281</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05261032453616057</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1724758432.159024</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_34.xlsx
+++ b/output/fit_clients/fit_round_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2086010246.164584</v>
+        <v>1983494389.048164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09059305718066152</v>
+        <v>0.07591449173859119</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04349358484232283</v>
+        <v>0.03525999310954938</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1043005130.089972</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1705232646.52147</v>
+        <v>2359924689.518012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1824966279684009</v>
+        <v>0.1251364666207477</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04973662649491715</v>
+        <v>0.03044535881512076</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>852616317.4639493</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4705297315.940841</v>
+        <v>3660581494.261884</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1331396821063635</v>
+        <v>0.163092901201698</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02999295399160773</v>
+        <v>0.03788349335202013</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2352648721.923259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3697654085.900213</v>
+        <v>3070161272.927242</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09635757860809065</v>
+        <v>0.07039554288642087</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03802523498191686</v>
+        <v>0.04264048730687989</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1848827066.457139</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2377687221.992936</v>
+        <v>2365145751.349823</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1047196359987259</v>
+        <v>0.09337301761907668</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04072817730873015</v>
+        <v>0.04899935245492642</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1188843599.549341</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2902414198.727764</v>
+        <v>2932248595.733174</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07424354997443564</v>
+        <v>0.09169802202751048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03923190256680554</v>
+        <v>0.04299261112927457</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1451207073.429931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3346123272.331443</v>
+        <v>3862167560.645352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2193511069574655</v>
+        <v>0.202858612179724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02623561675481559</v>
+        <v>0.02260289729527472</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1673061728.881735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1505026380.367757</v>
+        <v>2005164181.370613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.126401501166254</v>
+        <v>0.1329158977720475</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03019762083484518</v>
+        <v>0.03360627410276126</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>752513285.2948351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4501246477.617812</v>
+        <v>4602885056.072603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1744744981255955</v>
+        <v>0.1998203651986856</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03937004936612627</v>
+        <v>0.04187155945858306</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2250623299.328294</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3471273764.766541</v>
+        <v>2966678298.385651</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1750781164547301</v>
+        <v>0.1515163474287965</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03164828192467724</v>
+        <v>0.04018634977195967</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1735636858.031601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2118159053.835141</v>
+        <v>2881648984.984959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1760595708589581</v>
+        <v>0.1977200479834803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03616143443984726</v>
+        <v>0.0395706255601775</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1059079463.990672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3755873430.27594</v>
+        <v>4995504664.493246</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06745893011795051</v>
+        <v>0.09228446579672794</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02606687986272887</v>
+        <v>0.02106827791416513</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1877936782.284591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2683640781.336731</v>
+        <v>2784871222.187025</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1302037456856291</v>
+        <v>0.1323592302227683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03353471596821451</v>
+        <v>0.04009593657028176</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1341820447.843444</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1188808391.368556</v>
+        <v>1365672942.086818</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08648048771459316</v>
+        <v>0.1065117212746554</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03528276250140504</v>
+        <v>0.0307018212167275</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>594404210.4563601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2860850835.194964</v>
+        <v>2276082731.823105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1026721232256934</v>
+        <v>0.08430956997692776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0481887347962171</v>
+        <v>0.05014561335902102</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1430425415.972602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4571313960.655604</v>
+        <v>4711459238.603684</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1063295813536489</v>
+        <v>0.1749447627250332</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04894847130479155</v>
+        <v>0.04260678719855476</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2285656986.52291</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3682434896.80585</v>
+        <v>3101402366.299272</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1459003843611628</v>
+        <v>0.1256027050145656</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0245054983474546</v>
+        <v>0.02159140704130628</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1841217429.058678</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>979288046.6319246</v>
+        <v>1343659191.80706</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1611011915255999</v>
+        <v>0.1311276522528435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02597940254011357</v>
+        <v>0.02647796396114849</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>489644047.327862</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2402779036.412679</v>
+        <v>2677630069.848012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1426629228072858</v>
+        <v>0.1607714652487057</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02732538145855739</v>
+        <v>0.02435733831918985</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1201389501.468744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2029679126.842452</v>
+        <v>1985251563.118913</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08613441543037366</v>
+        <v>0.09029477802238169</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04188735933927042</v>
+        <v>0.03401426657957812</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1014839596.343236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3744853472.195204</v>
+        <v>3946130738.687179</v>
       </c>
       <c r="F22" t="n">
-        <v>0.124344663248844</v>
+        <v>0.1060530103318308</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03902453718508626</v>
+        <v>0.03829451278029711</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1872426752.834713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1042078709.082003</v>
+        <v>1528850914.305604</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1689199054919285</v>
+        <v>0.1182460542536916</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05185514328249026</v>
+        <v>0.05343910985077569</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>521039417.4608634</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2774996006.424009</v>
+        <v>3335815541.112443</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1453079733996315</v>
+        <v>0.1286204912766555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0319353756447583</v>
+        <v>0.02772428701745696</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1387498053.415663</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1313912501.641281</v>
+        <v>1054894835.376659</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07988990053248309</v>
+        <v>0.1201782714756764</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03049568286645074</v>
+        <v>0.02931939450670895</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>656956242.3839917</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1272301121.566224</v>
+        <v>1140558044.661572</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08628156890518346</v>
+        <v>0.09842938385260037</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03501402099766312</v>
+        <v>0.03444900927688817</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>636150599.3243054</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3269243300.912354</v>
+        <v>4696889830.367583</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1328234784176746</v>
+        <v>0.09957071112532814</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02684668780084683</v>
+        <v>0.02377212439944728</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1634621696.728269</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3509718049.048138</v>
+        <v>2984695514.409843</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1412014752926523</v>
+        <v>0.1307898467037456</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03552015087630676</v>
+        <v>0.04891837682503338</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1754859079.821654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3911385122.329576</v>
+        <v>4018861117.907132</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09398569585174206</v>
+        <v>0.09983117950912161</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04660250108473325</v>
+        <v>0.02900781815214331</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1955692584.029127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2203823937.463278</v>
+        <v>1810558427.886854</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1053149105739249</v>
+        <v>0.09371671003295672</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03012336853692979</v>
+        <v>0.02821579481954788</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1101912029.193881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>992137998.4841007</v>
+        <v>1330413279.142651</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09444936948598044</v>
+        <v>0.07588836504299926</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03535735527397258</v>
+        <v>0.0371199739099231</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>496068999.4223352</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1770575273.70997</v>
+        <v>1901510971.3429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1056621933524344</v>
+        <v>0.08961124362371521</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03777712061952175</v>
+        <v>0.02817408563685152</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>885287761.0818291</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2895676263.646182</v>
+        <v>2118903153.32187</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1389271441112008</v>
+        <v>0.2017687145667533</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05597914231826922</v>
+        <v>0.05440267000387756</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1447838136.167454</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1527841376.270681</v>
+        <v>1326440899.69534</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1123757015990624</v>
+        <v>0.0947965508683886</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02674944968396929</v>
+        <v>0.02075057002382373</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>763920639.2069656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>821242815.0735908</v>
+        <v>1066127536.461046</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09702530786648329</v>
+        <v>0.09161241851628675</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03876774339087165</v>
+        <v>0.0446142476847954</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>410621465.1506718</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3225013722.489644</v>
+        <v>2327646796.869139</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1359790652896471</v>
+        <v>0.1638007115217992</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02761463622905133</v>
+        <v>0.02850786528779545</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1612506824.925122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2297581522.066603</v>
+        <v>2674743606.442764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08393840840657574</v>
+        <v>0.0819278643501325</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02994940510347514</v>
+        <v>0.03991786196628515</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1148790829.071556</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1410520921.047917</v>
+        <v>1415194162.421964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1150779037610332</v>
+        <v>0.07517077651613603</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0259217149861017</v>
+        <v>0.03264710658051509</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>705260522.1988825</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1352685439.302598</v>
+        <v>1452282593.424121</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1497949473475877</v>
+        <v>0.1339501854290762</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02033793328258494</v>
+        <v>0.0289184000205765</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>676342812.2095177</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1277782016.50348</v>
+        <v>1334841688.136677</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1359392690311678</v>
+        <v>0.1497934774845023</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03719122497450478</v>
+        <v>0.03627559029643093</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>638891029.9215974</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2721471509.368328</v>
+        <v>2033475373.91905</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1334831188675084</v>
+        <v>0.163126931342103</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03046806267161454</v>
+        <v>0.03636638215927445</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1360735758.113195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4315077402.652411</v>
+        <v>2991667657.616894</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09069670716574529</v>
+        <v>0.1041981025740353</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03656509908523675</v>
+        <v>0.04473280598070559</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2157538752.162204</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2620066443.27143</v>
+        <v>2758535339.328685</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1911878546390303</v>
+        <v>0.1315806367072085</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0248727178598485</v>
+        <v>0.01617924272703599</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1310033258.047488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2024655715.710875</v>
+        <v>2187586650.88725</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08265866501501094</v>
+        <v>0.08498733395636347</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0231463869173353</v>
+        <v>0.03573114993010405</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1012327968.93938</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2016666919.931293</v>
+        <v>2232123974.840575</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1442958503313254</v>
+        <v>0.1848445163005178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05624206694509883</v>
+        <v>0.03596154041721111</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1008333452.336522</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3909929348.283045</v>
+        <v>3528468706.574677</v>
       </c>
       <c r="F46" t="n">
-        <v>0.13675709832752</v>
+        <v>0.1440850680443685</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04089670185441985</v>
+        <v>0.04688646448249117</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1954964638.333653</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3277264739.223085</v>
+        <v>5003632030.335073</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1959808624151626</v>
+        <v>0.1281375227033971</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05195769040749254</v>
+        <v>0.05908543776808214</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1638632327.568299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3118658724.106749</v>
+        <v>3850483454.305552</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08673139254105737</v>
+        <v>0.09727647713113302</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03499548839084005</v>
+        <v>0.02574665697961212</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1559329447.427151</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1392348875.733306</v>
+        <v>1251997780.917961</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1201550452911579</v>
+        <v>0.1521516971758506</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03739938310087168</v>
+        <v>0.03894825289553843</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>696174486.4791559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3065765186.219401</v>
+        <v>4027078044.556165</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1348291144415961</v>
+        <v>0.1571959146609318</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03310107726503632</v>
+        <v>0.04092699583303277</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1532882648.100234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1381797414.128157</v>
+        <v>1289598015.18615</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1933459955207008</v>
+        <v>0.17915290188059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04822637070296239</v>
+        <v>0.04227125480974359</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>690898728.9622777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4251485571.036584</v>
+        <v>4666866909.284997</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09761082938677648</v>
+        <v>0.1191381688606678</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06082383306263141</v>
+        <v>0.05616938593208651</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2125742827.025883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2923898645.324926</v>
+        <v>2424468911.640779</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1253916109741821</v>
+        <v>0.1758293891045488</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03150392297463783</v>
+        <v>0.02625110940950919</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1461949360.141629</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4885044134.164828</v>
+        <v>3650709584.235158</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1203431856276106</v>
+        <v>0.1236623374996391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04310659472431878</v>
+        <v>0.04183893073333798</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2442522200.389847</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3824225417.038597</v>
+        <v>4652066338.95854</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2035042254404129</v>
+        <v>0.1492719888122422</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03083821916570265</v>
+        <v>0.02703318317165633</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1912112675.527155</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1752017011.743726</v>
+        <v>1375639388.599516</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1553762480612976</v>
+        <v>0.1348973314778181</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0366089040211995</v>
+        <v>0.0407213647700044</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>876008510.6406537</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4322011811.254728</v>
+        <v>4588873641.152773</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1777476471220365</v>
+        <v>0.1491153776055696</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02186880462561134</v>
+        <v>0.02090083599696299</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2161006020.842171</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1427265562.030411</v>
+        <v>1678752133.053153</v>
       </c>
       <c r="F58" t="n">
-        <v>0.133997742307171</v>
+        <v>0.1811642175490247</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02846913869985858</v>
+        <v>0.03196658300279601</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>713632818.5904902</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3936890668.012495</v>
+        <v>4296089364.018566</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1038357682293632</v>
+        <v>0.126590026478026</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03184177737102706</v>
+        <v>0.03609233759402757</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1968445312.79771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2807882418.211292</v>
+        <v>2904228247.715026</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1322543196862175</v>
+        <v>0.1631962981139415</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03209048496119896</v>
+        <v>0.03018598831532196</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1403941259.130923</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3342272170.989071</v>
+        <v>2401461972.112765</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1371892624351024</v>
+        <v>0.1595565959692448</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02017531471608629</v>
+        <v>0.02800539281744226</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1671136033.501137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1695595055.261602</v>
+        <v>1565920425.099827</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1504669595590541</v>
+        <v>0.1659856558034593</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0420001292830326</v>
+        <v>0.03900100164355843</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>847797539.8781</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4517329346.614287</v>
+        <v>4166635843.063809</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07167273357624555</v>
+        <v>0.07235416775734195</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03782055942399471</v>
+        <v>0.04175097526591439</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2258664712.408064</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4034666196.589283</v>
+        <v>5486859172.599493</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1410280278061724</v>
+        <v>0.1905563809357017</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03070929371875585</v>
+        <v>0.02807661078253366</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>11</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2017333136.408953</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5723177019.977515</v>
+        <v>5928049708.197783</v>
       </c>
       <c r="F65" t="n">
-        <v>0.108074406354194</v>
+        <v>0.1609613258760766</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03212024350319902</v>
+        <v>0.02156196665790599</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2861588425.574595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4825699047.678215</v>
+        <v>3994880688.263979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1490139376618139</v>
+        <v>0.1071566247799939</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04234872093162215</v>
+        <v>0.03875426545877418</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2412849541.504764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3508396208.658479</v>
+        <v>2645171533.409659</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09238742717163034</v>
+        <v>0.06767312627832572</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0455690287489497</v>
+        <v>0.04688453909276729</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1754198079.425596</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4704031932.884679</v>
+        <v>5317767042.381008</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1176868208684504</v>
+        <v>0.1603314604966875</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03305805983520665</v>
+        <v>0.04859824810603771</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2352016004.713713</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2480290131.52838</v>
+        <v>1638840258.276049</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1518722428033547</v>
+        <v>0.1249925231918952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03705628885011474</v>
+        <v>0.03762042759019753</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1240145132.651989</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2719551650.314103</v>
+        <v>2639860210.790397</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07140964378992479</v>
+        <v>0.08071918938493002</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04487610858153945</v>
+        <v>0.03754775880118735</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1359775783.713818</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3614835921.370228</v>
+        <v>4251370786.76502</v>
       </c>
       <c r="F71" t="n">
-        <v>0.171548771489049</v>
+        <v>0.1815867856724742</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02135683358065056</v>
+        <v>0.02384997534453085</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1807417962.811032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1986260379.262247</v>
+        <v>1393413938.075066</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09691865786517698</v>
+        <v>0.09642629182984126</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03650653202676341</v>
+        <v>0.05242811352492286</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>993130138.0027785</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2584739742.387394</v>
+        <v>2492099102.840656</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0788993698558296</v>
+        <v>0.08427681310807787</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03302814643296451</v>
+        <v>0.03989306136356677</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1292369904.976059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3431754381.644697</v>
+        <v>2520656877.105572</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1679237503812732</v>
+        <v>0.1759349784247215</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02878436144579172</v>
+        <v>0.02533958300005108</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1715877218.739923</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1876581737.953968</v>
+        <v>2417224773.384763</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1074336432163807</v>
+        <v>0.1366045794764623</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03724778386531059</v>
+        <v>0.02875990285499829</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>938290844.5362232</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4213804325.126444</v>
+        <v>3286799355.252819</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09571204645789919</v>
+        <v>0.102879976195447</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0245906678203038</v>
+        <v>0.02626715451701603</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2106902156.079952</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1407920389.412604</v>
+        <v>1414400917.267548</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1206140057360197</v>
+        <v>0.1404659091218431</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03046415189291748</v>
+        <v>0.0220678882978563</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>703960168.5897335</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2935273779.21093</v>
+        <v>4230428112.740025</v>
       </c>
       <c r="F78" t="n">
-        <v>0.118602640893358</v>
+        <v>0.1148504950720891</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0449460376047045</v>
+        <v>0.03556082709261246</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1467636931.395819</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1490168293.830046</v>
+        <v>1395998910.72463</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1217238230707326</v>
+        <v>0.1734594097263829</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03046497043899179</v>
+        <v>0.03638158910531108</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>745084179.2525241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3617402033.799979</v>
+        <v>4554158200.308432</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07308547195865558</v>
+        <v>0.09097900506844404</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02394747583306733</v>
+        <v>0.02991981110777943</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1808700997.17959</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3763981079.970295</v>
+        <v>4531836434.651614</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1223477930134346</v>
+        <v>0.1197123710763714</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0272350564977689</v>
+        <v>0.02672041187773522</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1881990494.229438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4141521188.310495</v>
+        <v>3556516978.635999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1596912191680351</v>
+        <v>0.188621390540037</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02069688696262422</v>
+        <v>0.02038534166747134</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2070760625.87201</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1956059532.733223</v>
+        <v>2419384762.751094</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09791357738661204</v>
+        <v>0.1372093617565083</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03458305026060514</v>
+        <v>0.03952841181256465</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>978029746.0552548</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2405480452.628207</v>
+        <v>1863243368.407689</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0861675245313084</v>
+        <v>0.120532836514446</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04262728015022927</v>
+        <v>0.04460132438516992</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1202740171.757402</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3426736217.953363</v>
+        <v>3424030388.192871</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1427754207351653</v>
+        <v>0.1657621092391315</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04311383893902209</v>
+        <v>0.0530521338308218</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1713368216.041962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2022589402.908698</v>
+        <v>2383543711.243261</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1321286041735669</v>
+        <v>0.1236535944288917</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02391373706396066</v>
+        <v>0.02396511108335753</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1011294732.069692</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>911515061.4169282</v>
+        <v>1016339028.19536</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1411993314499534</v>
+        <v>0.1681729414413342</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02951375963047016</v>
+        <v>0.029286177211434</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>455757512.1557873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2523622081.129281</v>
+        <v>2440960305.167926</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1110152515156126</v>
+        <v>0.124827268631613</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03469862853198722</v>
+        <v>0.03733636686596779</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1261811023.74193</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2556047944.653852</v>
+        <v>2584916012.414685</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1332161138601781</v>
+        <v>0.1557197973610965</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03519796465954658</v>
+        <v>0.0396361013191768</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1278024042.82122</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2044188587.616503</v>
+        <v>1744046825.986131</v>
       </c>
       <c r="F90" t="n">
-        <v>0.116338745285072</v>
+        <v>0.1118050061526155</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04419694047723176</v>
+        <v>0.0415689220559406</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1022094371.956884</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1633575806.455478</v>
+        <v>1646653482.596883</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1643451551677796</v>
+        <v>0.1397870771309835</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05622881820990441</v>
+        <v>0.04299286607769183</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>816787924.1543295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2565061840.934677</v>
+        <v>1913800047.912131</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06848012004567576</v>
+        <v>0.0746915432635968</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04375402286182937</v>
+        <v>0.03554051224065852</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1282530909.163029</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4011191759.164424</v>
+        <v>5009550879.966653</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1305052084673483</v>
+        <v>0.1311764937124421</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0496482133058153</v>
+        <v>0.04910284630239474</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2005595879.280085</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1626329565.66698</v>
+        <v>1753734741.701906</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1425840993056141</v>
+        <v>0.1062246258408393</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02697920176294469</v>
+        <v>0.04305297295590085</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>813164732.3529674</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3011236145.500419</v>
+        <v>2896083279.0316</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1351361578997724</v>
+        <v>0.09993505955017361</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04923037973915389</v>
+        <v>0.04922608509957992</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1505618071.49875</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1992968238.622246</v>
+        <v>1773579092.690995</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1026528141650081</v>
+        <v>0.1366685428117211</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04635352274005335</v>
+        <v>0.04415782985493406</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>996484106.8650919</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3631072429.966707</v>
+        <v>3704114840.773169</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1556351444377967</v>
+        <v>0.1632940354938099</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02706561213318325</v>
+        <v>0.02394556438419726</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1815536241.505008</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3418012368.898818</v>
+        <v>3730625571.834379</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1193148854066035</v>
+        <v>0.1055423060041195</v>
       </c>
       <c r="G98" t="n">
-        <v>0.030614135878629</v>
+        <v>0.02952692928202421</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1709006197.32899</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3332299259.621531</v>
+        <v>3293090545.022438</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120840435155441</v>
+        <v>0.1265042914453048</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02967078690213598</v>
+        <v>0.02813293911379262</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1666149639.731342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4206208082.428212</v>
+        <v>4748737336.160177</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1121911592644757</v>
+        <v>0.1634104897107046</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01873586631612381</v>
+        <v>0.0246731620497576</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2103104128.135836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3449516567.711571</v>
+        <v>3166499695.464691</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1987495616805281</v>
+        <v>0.1477488924278226</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05261032453616057</v>
+        <v>0.05697982028628116</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1724758432.159024</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_34.xlsx
+++ b/output/fit_clients/fit_round_34.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1983494389.048164</v>
+        <v>1990148871.805364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07591449173859119</v>
+        <v>0.07312891512788826</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03525999310954938</v>
+        <v>0.02891059045736054</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2359924689.518012</v>
+        <v>2109299555.318578</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1251364666207477</v>
+        <v>0.1231445256020198</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03044535881512076</v>
+        <v>0.0379102946125941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3660581494.261884</v>
+        <v>4182010708.670226</v>
       </c>
       <c r="F4" t="n">
-        <v>0.163092901201698</v>
+        <v>0.136890034716923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03788349335202013</v>
+        <v>0.03603086054947044</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3070161272.927242</v>
+        <v>3887858088.054222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07039554288642087</v>
+        <v>0.1065880326082277</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04264048730687989</v>
+        <v>0.0402735335702348</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2365145751.349823</v>
+        <v>1795413935.959406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09337301761907668</v>
+        <v>0.09055797824256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04899935245492642</v>
+        <v>0.03793099442479401</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2932248595.733174</v>
+        <v>2989227172.075663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09169802202751048</v>
+        <v>0.06793172004882481</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04299261112927457</v>
+        <v>0.03985082502746338</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3862167560.645352</v>
+        <v>3425550476.191061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.202858612179724</v>
+        <v>0.1344835389181548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02260289729527472</v>
+        <v>0.02814228131692306</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2005164181.370613</v>
+        <v>1696416547.658258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1329158977720475</v>
+        <v>0.1406803666924705</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03360627410276126</v>
+        <v>0.02893868435869588</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4602885056.072603</v>
+        <v>5554608277.624412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1998203651986856</v>
+        <v>0.1571341959045716</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04187155945858306</v>
+        <v>0.05416876308191799</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2966678298.385651</v>
+        <v>3461937101.296086</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1515163474287965</v>
+        <v>0.126199244029656</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04018634977195967</v>
+        <v>0.04614943808948366</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2881648984.984959</v>
+        <v>2077686360.248965</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1977200479834803</v>
+        <v>0.1243472598880158</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0395706255601775</v>
+        <v>0.05317091978653821</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4995504664.493246</v>
+        <v>3474459759.344211</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09228446579672794</v>
+        <v>0.08834421043353143</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02106827791416513</v>
+        <v>0.02840835776587548</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2784871222.187025</v>
+        <v>2456204946.061524</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1323592302227683</v>
+        <v>0.1626364954599691</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04009593657028176</v>
+        <v>0.0438842955940209</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1365672942.086818</v>
+        <v>1220930550.64222</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1065117212746554</v>
+        <v>0.1071822341032094</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0307018212167275</v>
+        <v>0.04013553300490991</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2276082731.823105</v>
+        <v>2721835199.87743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08430956997692776</v>
+        <v>0.1078180227801497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05014561335902102</v>
+        <v>0.04461566305788018</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4711459238.603684</v>
+        <v>4315369605.431594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1749447627250332</v>
+        <v>0.1529114610148807</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04260678719855476</v>
+        <v>0.0503424758438155</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3101402366.299272</v>
+        <v>3734668553.65673</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1256027050145656</v>
+        <v>0.1684703207391376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02159140704130628</v>
+        <v>0.02372979784472021</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1343659191.80706</v>
+        <v>1335181811.787026</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1311276522528435</v>
+        <v>0.1391245531220584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02647796396114849</v>
+        <v>0.01960868970618674</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2677630069.848012</v>
+        <v>2519203192.081684</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1607714652487057</v>
+        <v>0.1115750854570881</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02435733831918985</v>
+        <v>0.03063723502381272</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1985251563.118913</v>
+        <v>2080342045.450181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09029477802238169</v>
+        <v>0.08543960508409705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03401426657957812</v>
+        <v>0.03589531228359948</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3946130738.687179</v>
+        <v>3692834616.632041</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1060530103318308</v>
+        <v>0.0971929468421131</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03829451278029711</v>
+        <v>0.03735173960234799</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1528850914.305604</v>
+        <v>1069181413.810062</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1182460542536916</v>
+        <v>0.1386820537943781</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05343910985077569</v>
+        <v>0.03438293541471583</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3335815541.112443</v>
+        <v>4113713673.58861</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1286204912766555</v>
+        <v>0.1294373994103744</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02772428701745696</v>
+        <v>0.02349095805868915</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1054894835.376659</v>
+        <v>1357705904.813775</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201782714756764</v>
+        <v>0.08061900595803695</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02931939450670895</v>
+        <v>0.02177460490359845</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1140558044.661572</v>
+        <v>909244757.561448</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09842938385260037</v>
+        <v>0.1192894191123986</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03444900927688817</v>
+        <v>0.03856679033407114</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4696889830.367583</v>
+        <v>3594019575.208706</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09957071112532814</v>
+        <v>0.1059794335822038</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02377212439944728</v>
+        <v>0.0168771554936636</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2984695514.409843</v>
+        <v>3731863707.073522</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307898467037456</v>
+        <v>0.113719987093503</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04891837682503338</v>
+        <v>0.03389157354221883</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4018861117.907132</v>
+        <v>4442218400.05057</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09983117950912161</v>
+        <v>0.09384809068696587</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02900781815214331</v>
+        <v>0.03900652994160118</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1810558427.886854</v>
+        <v>1935776602.863649</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09371671003295672</v>
+        <v>0.1010805391814767</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02821579481954788</v>
+        <v>0.02846331426668508</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1330413279.142651</v>
+        <v>1040762988.941426</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07588836504299926</v>
+        <v>0.09006751431346935</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0371199739099231</v>
+        <v>0.04590265655094408</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1901510971.3429</v>
+        <v>1397792502.518305</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08961124362371521</v>
+        <v>0.1056179449055963</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02817408563685152</v>
+        <v>0.0357009359126228</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2118903153.32187</v>
+        <v>2365154110.795274</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2017687145667533</v>
+        <v>0.1489537219399572</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05440267000387756</v>
+        <v>0.06088538775962774</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1326440899.69534</v>
+        <v>1327320828.079397</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0947965508683886</v>
+        <v>0.1204216340857869</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02075057002382373</v>
+        <v>0.02607049438566827</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1066127536.461046</v>
+        <v>989357269.6663802</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09161241851628675</v>
+        <v>0.09595570090180194</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0446142476847954</v>
+        <v>0.02737547267729397</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2327646796.869139</v>
+        <v>1992268351.104582</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1638007115217992</v>
+        <v>0.1468711096218485</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02850786528779545</v>
+        <v>0.01904226559113041</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2674743606.442764</v>
+        <v>2916839928.476243</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0819278643501325</v>
+        <v>0.0866901509527135</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03991786196628515</v>
+        <v>0.04080112773363306</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1415194162.421964</v>
+        <v>1482261896.831813</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07517077651613603</v>
+        <v>0.08344783576618051</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03264710658051509</v>
+        <v>0.02540417898461319</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1452282593.424121</v>
+        <v>2170883666.167726</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1339501854290762</v>
+        <v>0.146788715905744</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0289184000205765</v>
+        <v>0.02216357494827826</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1334841688.136677</v>
+        <v>1770192772.925544</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1497934774845023</v>
+        <v>0.1455109732396719</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03627559029643093</v>
+        <v>0.04151108507019759</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2033475373.91905</v>
+        <v>2605199963.663578</v>
       </c>
       <c r="F41" t="n">
-        <v>0.163126931342103</v>
+        <v>0.1438771910202564</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03636638215927445</v>
+        <v>0.0384563830086329</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2991667657.616894</v>
+        <v>2722420140.944129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1041981025740353</v>
+        <v>0.09952942165985115</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04473280598070559</v>
+        <v>0.04661839648369449</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2758535339.328685</v>
+        <v>1969921013.78923</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1315806367072085</v>
+        <v>0.1465387961402931</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01617924272703599</v>
+        <v>0.02186150249009429</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2187586650.88725</v>
+        <v>1435337110.245187</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08498733395636347</v>
+        <v>0.08419729941091431</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03573114993010405</v>
+        <v>0.03172407238138168</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2232123974.840575</v>
+        <v>2419491453.516121</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1848445163005178</v>
+        <v>0.1406532154941413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03596154041721111</v>
+        <v>0.03996239284896602</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3528468706.574677</v>
+        <v>4239803897.586722</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1440850680443685</v>
+        <v>0.1156167600779209</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04688646448249117</v>
+        <v>0.0401633044551121</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5003632030.335073</v>
+        <v>4065508698.008729</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1281375227033971</v>
+        <v>0.1805636397729073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05908543776808214</v>
+        <v>0.05087258893228735</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3850483454.305552</v>
+        <v>3056330267.464522</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09727647713113302</v>
+        <v>0.09747385858460203</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02574665697961212</v>
+        <v>0.03564265516163382</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1251997780.917961</v>
+        <v>1239007078.123127</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1521516971758506</v>
+        <v>0.1410812340308673</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03894825289553843</v>
+        <v>0.04231149890475085</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4027078044.556165</v>
+        <v>2813698842.854284</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1571959146609318</v>
+        <v>0.1430855315775149</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04092699583303277</v>
+        <v>0.04518832214492103</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1289598015.18615</v>
+        <v>1219863997.604514</v>
       </c>
       <c r="F51" t="n">
-        <v>0.17915290188059</v>
+        <v>0.1789480787319508</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04227125480974359</v>
+        <v>0.04721798399885799</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4666866909.284997</v>
+        <v>4190928248.087365</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1191381688606678</v>
+        <v>0.08553342872862776</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05616938593208651</v>
+        <v>0.05053639764407461</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2424468911.640779</v>
+        <v>2422059047.721963</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1758293891045488</v>
+        <v>0.1787063536070224</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02625110940950919</v>
+        <v>0.02693417567208242</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3650709584.235158</v>
+        <v>3204153144.447973</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1236623374996391</v>
+        <v>0.10823565160352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04183893073333798</v>
+        <v>0.05001450223296287</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4652066338.95854</v>
+        <v>4515068500.327891</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1492719888122422</v>
+        <v>0.1973666099903116</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02703318317165633</v>
+        <v>0.032401374955314</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1375639388.599516</v>
+        <v>1798113318.833434</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1348973314778181</v>
+        <v>0.1546311725909961</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0407213647700044</v>
+        <v>0.03865481207421358</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4588873641.152773</v>
+        <v>3356886926.507221</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1491153776055696</v>
+        <v>0.1703687788129551</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02090083599696299</v>
+        <v>0.02532028668150609</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1678752133.053153</v>
+        <v>1612676818.5067</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1811642175490247</v>
+        <v>0.1537758245606234</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03196658300279601</v>
+        <v>0.03572772239626669</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4296089364.018566</v>
+        <v>5115234561.694182</v>
       </c>
       <c r="F59" t="n">
-        <v>0.126590026478026</v>
+        <v>0.09806882905634974</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03609233759402757</v>
+        <v>0.04912638410762249</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2904228247.715026</v>
+        <v>2518407253.812473</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1631962981139415</v>
+        <v>0.1570176903157471</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03018598831532196</v>
+        <v>0.02162629108713505</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2401461972.112765</v>
+        <v>3043665394.3404</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1595565959692448</v>
+        <v>0.1414631753232782</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02800539281744226</v>
+        <v>0.01997158859511117</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1565920425.099827</v>
+        <v>1877697224.60834</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1659856558034593</v>
+        <v>0.1768878492072634</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03900100164355843</v>
+        <v>0.03379587307244118</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4166635843.063809</v>
+        <v>4924413697.08417</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07235416775734195</v>
+        <v>0.09738567137702561</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04175097526591439</v>
+        <v>0.04088713348324903</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5486859172.599493</v>
+        <v>4910840883.164631</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1905563809357017</v>
+        <v>0.1439042210033585</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02807661078253366</v>
+        <v>0.02186294667814761</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5928049708.197783</v>
+        <v>4824928502.982142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1609613258760766</v>
+        <v>0.1183923265283128</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02156196665790599</v>
+        <v>0.0266473373790542</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3994880688.263979</v>
+        <v>5602748601.352428</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1071566247799939</v>
+        <v>0.1386803958030705</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03875426545877418</v>
+        <v>0.03194731315394657</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2645171533.409659</v>
+        <v>2946711792.814343</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06767312627832572</v>
+        <v>0.100911743374026</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04688453909276729</v>
+        <v>0.04371707236560887</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5317767042.381008</v>
+        <v>3874793430.957367</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1603314604966875</v>
+        <v>0.1130282196379583</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04859824810603771</v>
+        <v>0.03299345227930933</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1638840258.276049</v>
+        <v>2323084777.105131</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1249925231918952</v>
+        <v>0.140545918361016</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03762042759019753</v>
+        <v>0.04418518452888373</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2639860210.790397</v>
+        <v>2639292461.001739</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08071918938493002</v>
+        <v>0.0791929220962015</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03754775880118735</v>
+        <v>0.03067580472643958</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4251370786.76502</v>
+        <v>5209503578.589164</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1815867856724742</v>
+        <v>0.125659323470343</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02384997534453085</v>
+        <v>0.02611933248653347</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1393413938.075066</v>
+        <v>1396137839.230222</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09642629182984126</v>
+        <v>0.06854437889938592</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05242811352492286</v>
+        <v>0.04668674092401469</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2492099102.840656</v>
+        <v>2410016646.476529</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08427681310807787</v>
+        <v>0.1128824883980318</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03989306136356677</v>
+        <v>0.04922326049378698</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2520656877.105572</v>
+        <v>2537144437.865119</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1759349784247215</v>
+        <v>0.1734818419474546</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02533958300005108</v>
+        <v>0.03438882811454467</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2417224773.384763</v>
+        <v>1681956011.84917</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1366045794764623</v>
+        <v>0.1206382285127482</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02875990285499829</v>
+        <v>0.03249880351140735</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3286799355.252819</v>
+        <v>3329210343.627317</v>
       </c>
       <c r="F76" t="n">
-        <v>0.102879976195447</v>
+        <v>0.1142685143972004</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02626715451701603</v>
+        <v>0.03320210596173766</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1414400917.267548</v>
+        <v>1445105587.219516</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1404659091218431</v>
+        <v>0.1617398079565288</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0220678882978563</v>
+        <v>0.02112766964020227</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4230428112.740025</v>
+        <v>3542200029.461711</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1148504950720891</v>
+        <v>0.1062329299987666</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03556082709261246</v>
+        <v>0.04948089419407545</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1395998910.72463</v>
+        <v>1352191829.468613</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1734594097263829</v>
+        <v>0.127663527027458</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03638158910531108</v>
+        <v>0.02868929899588252</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4554158200.308432</v>
+        <v>5475322228.042636</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09097900506844404</v>
+        <v>0.1057701766393642</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02991981110777943</v>
+        <v>0.02919577176286311</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4531836434.651614</v>
+        <v>3591613945.639503</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1197123710763714</v>
+        <v>0.1278014595860955</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02672041187773522</v>
+        <v>0.029972108460674</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3556516978.635999</v>
+        <v>3548913253.466063</v>
       </c>
       <c r="F82" t="n">
-        <v>0.188621390540037</v>
+        <v>0.1631208254126675</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02038534166747134</v>
+        <v>0.01936127724444887</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2419384762.751094</v>
+        <v>2215566209.454723</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1372093617565083</v>
+        <v>0.11560999847781</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03952841181256465</v>
+        <v>0.03548444215654539</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1863243368.407689</v>
+        <v>1770630477.107655</v>
       </c>
       <c r="F84" t="n">
-        <v>0.120532836514446</v>
+        <v>0.1094829445053533</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04460132438516992</v>
+        <v>0.04665602869222649</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3424030388.192871</v>
+        <v>3209106675.879174</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1657621092391315</v>
+        <v>0.1257450544797046</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0530521338308218</v>
+        <v>0.03874991611775574</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2383543711.243261</v>
+        <v>2044235267.873845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1236535944288917</v>
+        <v>0.1732036026744726</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02396511108335753</v>
+        <v>0.02191625401906751</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1016339028.19536</v>
+        <v>940689228.4821075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1681729414413342</v>
+        <v>0.1619334796001339</v>
       </c>
       <c r="G87" t="n">
-        <v>0.029286177211434</v>
+        <v>0.03875147459900328</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2440960305.167926</v>
+        <v>3491512177.972453</v>
       </c>
       <c r="F88" t="n">
-        <v>0.124827268631613</v>
+        <v>0.1561645720614686</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03733636686596779</v>
+        <v>0.032446580883891</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2584916012.414685</v>
+        <v>3127534099.216424</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1557197973610965</v>
+        <v>0.1599796311838775</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0396361013191768</v>
+        <v>0.04108737224014603</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1744046825.986131</v>
+        <v>1495580811.510327</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1118050061526155</v>
+        <v>0.1146489691539158</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0415689220559406</v>
+        <v>0.05226914999890415</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1646653482.596883</v>
+        <v>1476265674.199646</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1397870771309835</v>
+        <v>0.1524507699403418</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04299286607769183</v>
+        <v>0.04461845461535496</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1913800047.912131</v>
+        <v>2669569620.616683</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0746915432635968</v>
+        <v>0.08782338776098363</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03554051224065852</v>
+        <v>0.036895613712738</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5009550879.966653</v>
+        <v>4196786887.904354</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1311764937124421</v>
+        <v>0.1270696959714149</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04910284630239474</v>
+        <v>0.04021451108572039</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1753734741.701906</v>
+        <v>1705199677.541657</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1062246258408393</v>
+        <v>0.1616212810095112</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04305297295590085</v>
+        <v>0.03883397394209272</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2896083279.0316</v>
+        <v>2747458656.300654</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09993505955017361</v>
+        <v>0.1222195927260493</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04922608509957992</v>
+        <v>0.0362011260792337</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1773579092.690995</v>
+        <v>1611261963.971453</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1366685428117211</v>
+        <v>0.1015561670636736</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04415782985493406</v>
+        <v>0.03279772188258358</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3704114840.773169</v>
+        <v>4452412395.456912</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1632940354938099</v>
+        <v>0.1312350870142496</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02394556438419726</v>
+        <v>0.01991392664637164</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3730625571.834379</v>
+        <v>2683608655.117487</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1055423060041195</v>
+        <v>0.08248393983284251</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02952692928202421</v>
+        <v>0.0298364217345602</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3293090545.022438</v>
+        <v>2082940047.944395</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1265042914453048</v>
+        <v>0.1087483373763385</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02813293911379262</v>
+        <v>0.03226422904503227</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4748737336.160177</v>
+        <v>4757732297.249285</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1634104897107046</v>
+        <v>0.1671065819447621</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0246731620497576</v>
+        <v>0.0209473445417773</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3166499695.464691</v>
+        <v>2653133743.920886</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1477488924278226</v>
+        <v>0.1499031060827175</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05697982028628116</v>
+        <v>0.05832435149034848</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_34.xlsx
+++ b/output/fit_clients/fit_round_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1990148871.805364</v>
+        <v>2459877096.59217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07312891512788826</v>
+        <v>0.08111512622120662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02891059045736054</v>
+        <v>0.04102973990507609</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2109299555.318578</v>
+        <v>2421026577.678765</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1231445256020198</v>
+        <v>0.1239081141138694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0379102946125941</v>
+        <v>0.03427142197387819</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4182010708.670226</v>
+        <v>3905004061.93588</v>
       </c>
       <c r="F4" t="n">
-        <v>0.136890034716923</v>
+        <v>0.1101375879459752</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03603086054947044</v>
+        <v>0.02914674956691449</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>193.9362877044096</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3887858088.054222</v>
+        <v>3126835770.444982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1065880326082277</v>
+        <v>0.07338097140502498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0402735335702348</v>
+        <v>0.05069995111073603</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1795413935.959406</v>
+        <v>1953729531.875996</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09055797824256</v>
+        <v>0.1460043258531554</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03793099442479401</v>
+        <v>0.03765479412270915</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2989227172.075663</v>
+        <v>2740146263.776895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06793172004882481</v>
+        <v>0.08807257460566228</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03985082502746338</v>
+        <v>0.03786701085206239</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3425550476.191061</v>
+        <v>3676565773.74517</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1344835389181548</v>
+        <v>0.1930749108800152</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02814228131692306</v>
+        <v>0.03042704054121226</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1696416547.658258</v>
+        <v>2147794944.110543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1406803666924705</v>
+        <v>0.1770290872326079</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02893868435869588</v>
+        <v>0.03347408372024506</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5554608277.624412</v>
+        <v>5268768985.620255</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1571341959045716</v>
+        <v>0.1530696812298989</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05416876308191799</v>
+        <v>0.04655449347962745</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>34</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.5228097285805</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3461937101.296086</v>
+        <v>3677780961.250832</v>
       </c>
       <c r="F11" t="n">
-        <v>0.126199244029656</v>
+        <v>0.1435701188975897</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04614943808948366</v>
+        <v>0.03390030313364868</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>183.6993971892037</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2077686360.248965</v>
+        <v>2238556904.947489</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1243472598880158</v>
+        <v>0.1984941054992258</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05317091978653821</v>
+        <v>0.05396918800552207</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3474459759.344211</v>
+        <v>4837395496.373843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08834421043353143</v>
+        <v>0.07413557773283209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02840835776587548</v>
+        <v>0.03136509773861635</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>211.7658178397373</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2456204946.061524</v>
+        <v>3910228855.855931</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1626364954599691</v>
+        <v>0.1364733550612544</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0438842955940209</v>
+        <v>0.02724892154325119</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>34</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1220930550.64222</v>
+        <v>1747661703.512031</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1071822341032094</v>
+        <v>0.08403702094593619</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04013553300490991</v>
+        <v>0.03763903702588359</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2721835199.87743</v>
+        <v>2625969275.778459</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1078180227801497</v>
+        <v>0.1095417286490399</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04461566305788018</v>
+        <v>0.05030151982121643</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4315369605.431594</v>
+        <v>3873128767.744402</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1529114610148807</v>
+        <v>0.1375920165932138</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0503424758438155</v>
+        <v>0.05126422885317657</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>34</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3734668553.65673</v>
+        <v>3125524160.804976</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1684703207391376</v>
+        <v>0.1170116981414379</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02372979784472021</v>
+        <v>0.03147596241431363</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1335181811.787026</v>
+        <v>861095068.6929182</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1391245531220584</v>
+        <v>0.1261569220024955</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01960868970618674</v>
+        <v>0.02702263000856651</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2519203192.081684</v>
+        <v>2050086075.416022</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1115750854570881</v>
+        <v>0.09953038235864434</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03063723502381272</v>
+        <v>0.02116828274770949</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2080342045.450181</v>
+        <v>2191689491.869683</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08543960508409705</v>
+        <v>0.0821031635952444</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03589531228359948</v>
+        <v>0.03891962055569513</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3692834616.632041</v>
+        <v>4033945798.198072</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0971929468421131</v>
+        <v>0.1130118985711561</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03735173960234799</v>
+        <v>0.03804501207414573</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1069181413.810062</v>
+        <v>1357780295.475364</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1386820537943781</v>
+        <v>0.1285048069722561</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03438293541471583</v>
+        <v>0.0442646859461717</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4113713673.58861</v>
+        <v>3646896076.130531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1294373994103744</v>
+        <v>0.09218658325878043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02349095805868915</v>
+        <v>0.03430161534449398</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1357705904.813775</v>
+        <v>971570640.0507056</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08061900595803695</v>
+        <v>0.07777324506625823</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02177460490359845</v>
+        <v>0.02144685542806768</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>909244757.561448</v>
+        <v>1251253341.806943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1192894191123986</v>
+        <v>0.1039354910064711</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03856679033407114</v>
+        <v>0.03142638873343918</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3594019575.208706</v>
+        <v>4043618430.187724</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1059794335822038</v>
+        <v>0.1325215593469208</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0168771554936636</v>
+        <v>0.02029468163756577</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>34</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3731863707.073522</v>
+        <v>3435141272.536956</v>
       </c>
       <c r="F28" t="n">
-        <v>0.113719987093503</v>
+        <v>0.09300519287012884</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03389157354221883</v>
+        <v>0.03251910209787721</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>33</v>
+      </c>
+      <c r="K28" t="n">
+        <v>145.8850775817879</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4442218400.05057</v>
+        <v>3725559260.077946</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09384809068696587</v>
+        <v>0.1197464842149096</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03900652994160118</v>
+        <v>0.03336118853514743</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
+        <v>34</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1935776602.863649</v>
+        <v>2008368249.232434</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1010805391814767</v>
+        <v>0.1330370984325928</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02846331426668508</v>
+        <v>0.03474816917765043</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1040762988.941426</v>
+        <v>1472422434.791899</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09006751431346935</v>
+        <v>0.07756978673692608</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04590265655094408</v>
+        <v>0.03910343759765903</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1397792502.518305</v>
+        <v>1884906798.35156</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1056179449055963</v>
+        <v>0.08172350411597601</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0357009359126228</v>
+        <v>0.03175706627390003</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2365154110.795274</v>
+        <v>2034029120.892213</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1489537219399572</v>
+        <v>0.1710524916038237</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06088538775962774</v>
+        <v>0.05906591496006466</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1327320828.079397</v>
+        <v>1285379441.982403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1204216340857869</v>
+        <v>0.1043323640653574</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02607049438566827</v>
+        <v>0.02226836968652532</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>989357269.6663802</v>
+        <v>1294657069.720373</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09595570090180194</v>
+        <v>0.09541356265348046</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02737547267729397</v>
+        <v>0.04478820972086189</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1992268351.104582</v>
+        <v>2490178221.431728</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1468711096218485</v>
+        <v>0.1341445191876278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01904226559113041</v>
+        <v>0.02531896036623658</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2916839928.476243</v>
+        <v>2278978477.701419</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0866901509527135</v>
+        <v>0.08275217942144032</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04080112773363306</v>
+        <v>0.03816720597590897</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1482261896.831813</v>
+        <v>1871678095.362481</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08344783576618051</v>
+        <v>0.09274855546106966</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02540417898461319</v>
+        <v>0.03948881068424961</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2170883666.167726</v>
+        <v>1682123192.085833</v>
       </c>
       <c r="F39" t="n">
-        <v>0.146788715905744</v>
+        <v>0.1903597801476661</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02216357494827826</v>
+        <v>0.02646885248370603</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1770192772.925544</v>
+        <v>1622792245.385873</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1455109732396719</v>
+        <v>0.1249497450675274</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04151108507019759</v>
+        <v>0.05129068983455692</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2605199963.663578</v>
+        <v>2251783367.681321</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1438771910202564</v>
+        <v>0.1603164837106491</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0384563830086329</v>
+        <v>0.04392303923833828</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2722420140.944129</v>
+        <v>4215644748.689854</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09952942165985115</v>
+        <v>0.1216765450885986</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04661839648369449</v>
+        <v>0.03017334515634939</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>34</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1969921013.78923</v>
+        <v>2644956693.30449</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1465387961402931</v>
+        <v>0.1531402697627374</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02186150249009429</v>
+        <v>0.01945428624746882</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1435337110.245187</v>
+        <v>1976802426.833134</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08419729941091431</v>
+        <v>0.09814978640395761</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03172407238138168</v>
+        <v>0.03662638414799184</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2419491453.516121</v>
+        <v>2008311703.4462</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1406532154941413</v>
+        <v>0.1226032025655434</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03996239284896602</v>
+        <v>0.0472356266421304</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4239803897.586722</v>
+        <v>5204231308.189578</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1156167600779209</v>
+        <v>0.1089453106516442</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0401633044551121</v>
+        <v>0.0495828834711629</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>34</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4065508698.008729</v>
+        <v>4145259402.684139</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1805636397729073</v>
+        <v>0.1386113409748451</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05087258893228735</v>
+        <v>0.03793749414607945</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>14</v>
+      </c>
+      <c r="J47" t="n">
+        <v>34</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3056330267.464522</v>
+        <v>3217936976.899997</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09747385858460203</v>
+        <v>0.08186592498461651</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03564265516163382</v>
+        <v>0.03370845074357662</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1239007078.123127</v>
+        <v>1922776246.678735</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1410812340308673</v>
+        <v>0.1186304805755202</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04231149890475085</v>
+        <v>0.04415906425721983</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2185,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2813698842.854284</v>
+        <v>4108779390.218019</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1430855315775149</v>
+        <v>0.1146127572185945</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04518832214492103</v>
+        <v>0.05103885497594362</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" t="n">
+        <v>34</v>
+      </c>
+      <c r="K50" t="n">
+        <v>211.9119825028934</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1219863997.604514</v>
+        <v>1491992464.632892</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1789480787319508</v>
+        <v>0.150999154227338</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04721798399885799</v>
+        <v>0.03642030673176273</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4190928248.087365</v>
+        <v>4054620166.105308</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08553342872862776</v>
+        <v>0.126367956322589</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05053639764407461</v>
+        <v>0.05750965265277373</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>34</v>
+      </c>
+      <c r="K52" t="n">
+        <v>223.1867181725661</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2422059047.721963</v>
+        <v>3229789421.00067</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1787063536070224</v>
+        <v>0.1882738654954566</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02693417567208242</v>
+        <v>0.03137387125647176</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3204153144.447973</v>
+        <v>4116847240.312726</v>
       </c>
       <c r="F54" t="n">
-        <v>0.10823565160352</v>
+        <v>0.1440987264850524</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05001450223296287</v>
+        <v>0.04127854042579283</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>33</v>
+      </c>
+      <c r="K54" t="n">
+        <v>210.0291246666594</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4515068500.327891</v>
+        <v>4117380125.638166</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1973666099903116</v>
+        <v>0.2087558869994445</v>
       </c>
       <c r="G55" t="n">
-        <v>0.032401374955314</v>
+        <v>0.02457901779958208</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>33</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.3462614227327</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1798113318.833434</v>
+        <v>1170651127.576933</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1546311725909961</v>
+        <v>0.14005280641715</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03865481207421358</v>
+        <v>0.05600371893173269</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3356886926.507221</v>
+        <v>2970205919.6584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1703687788129551</v>
+        <v>0.1784300583417147</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02532028668150609</v>
+        <v>0.02655417286921634</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
+      </c>
+      <c r="J57" t="n">
+        <v>33</v>
+      </c>
+      <c r="K57" t="n">
+        <v>104.8934628699119</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1612676818.5067</v>
+        <v>1170021126.054713</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1537758245606234</v>
+        <v>0.2005685657270879</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03572772239626669</v>
+        <v>0.03504734813972844</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5115234561.694182</v>
+        <v>4541783816.23837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09806882905634974</v>
+        <v>0.08602419038402494</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04912638410762249</v>
+        <v>0.03913134866478814</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>33</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.6338586188096</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2518407253.812473</v>
+        <v>3484377625.974464</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1570176903157471</v>
+        <v>0.1995211533274744</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02162629108713505</v>
+        <v>0.02553661476017182</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3043665394.3404</v>
+        <v>2354370956.349397</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1414631753232782</v>
+        <v>0.1428622826977397</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01997158859511117</v>
+        <v>0.03247319770340631</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1877697224.60834</v>
+        <v>1528361360.857064</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1768878492072634</v>
+        <v>0.1479963570142803</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03379587307244118</v>
+        <v>0.03900923106680116</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4924413697.08417</v>
+        <v>4484109611.943666</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09738567137702561</v>
+        <v>0.1078438202382379</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04088713348324903</v>
+        <v>0.03590774788735904</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>34</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4910840883.164631</v>
+        <v>3618511390.016022</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1439042210033585</v>
+        <v>0.19035941942323</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02186294667814761</v>
+        <v>0.0288126134862967</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>33</v>
+      </c>
+      <c r="K64" t="n">
+        <v>155.1413545529165</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4824928502.982142</v>
+        <v>4189977117.927473</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1183923265283128</v>
+        <v>0.1279497880096307</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0266473373790542</v>
+        <v>0.02385783213270501</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>34</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5602748601.352428</v>
+        <v>5587367071.633675</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386803958030705</v>
+        <v>0.1186638302313758</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03194731315394657</v>
+        <v>0.03157023416799358</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>17</v>
+      </c>
+      <c r="J66" t="n">
+        <v>33</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.2327867720808</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2946711792.814343</v>
+        <v>2780619455.619803</v>
       </c>
       <c r="F67" t="n">
-        <v>0.100911743374026</v>
+        <v>0.0960743166765804</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04371707236560887</v>
+        <v>0.04329526366234959</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3874793430.957367</v>
+        <v>4277197838.952527</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1130282196379583</v>
+        <v>0.1316613040851641</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03299345227930933</v>
+        <v>0.05147321328099307</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>17</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33</v>
+      </c>
+      <c r="K68" t="n">
+        <v>201.8721075305985</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2323084777.105131</v>
+        <v>1974542293.71914</v>
       </c>
       <c r="F69" t="n">
-        <v>0.140545918361016</v>
+        <v>0.1255460864836618</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04418518452888373</v>
+        <v>0.03856583337262395</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2639292461.001739</v>
+        <v>3683120000.508166</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0791929220962015</v>
+        <v>0.07733782464243596</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03067580472643958</v>
+        <v>0.04298664156818387</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5209503578.589164</v>
+        <v>4325371618.543445</v>
       </c>
       <c r="F71" t="n">
-        <v>0.125659323470343</v>
+        <v>0.1496670646554893</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02611933248653347</v>
+        <v>0.02176013428789564</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28</v>
+      </c>
+      <c r="J71" t="n">
+        <v>34</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.0718072453361</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1396137839.230222</v>
+        <v>2064794622.740394</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06854437889938592</v>
+        <v>0.09136099581407846</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04668674092401469</v>
+        <v>0.0510583738115577</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2410016646.476529</v>
+        <v>2704779061.421582</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1128824883980318</v>
+        <v>0.07272785543734596</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04922326049378698</v>
+        <v>0.04096577748771608</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2537144437.865119</v>
+        <v>2967271098.529392</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1734818419474546</v>
+        <v>0.1552775225644162</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03438882811454467</v>
+        <v>0.02270412655030732</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>33</v>
+      </c>
+      <c r="K74" t="n">
+        <v>110.5047589046405</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1681956011.84917</v>
+        <v>1624328362.075536</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1206382285127482</v>
+        <v>0.1013547839112461</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03249880351140735</v>
+        <v>0.02529864172168194</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3329210343.627317</v>
+        <v>4164255896.890944</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1142685143972004</v>
+        <v>0.08802454384512516</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03320210596173766</v>
+        <v>0.02226803399739473</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>33</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.4321776069935</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1445105587.219516</v>
+        <v>1543768861.463392</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1617398079565288</v>
+        <v>0.1735858422843576</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02112766964020227</v>
+        <v>0.02797415264123873</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3542200029.461711</v>
+        <v>3912600892.654243</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1062329299987666</v>
+        <v>0.1352676202816573</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04948089419407545</v>
+        <v>0.03676078048944117</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+      <c r="J78" t="n">
+        <v>33</v>
+      </c>
+      <c r="K78" t="n">
+        <v>192.8152520687345</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1352191829.468613</v>
+        <v>1266185638.027043</v>
       </c>
       <c r="F79" t="n">
-        <v>0.127663527027458</v>
+        <v>0.1368079050501009</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02868929899588252</v>
+        <v>0.02644646686886446</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5475322228.042636</v>
+        <v>4949602105.34677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1057701766393642</v>
+        <v>0.08383617098657767</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02919577176286311</v>
+        <v>0.02464084584673598</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>16</v>
+      </c>
+      <c r="J80" t="n">
+        <v>34</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3591613945.639503</v>
+        <v>4408929379.833567</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1278014595860955</v>
+        <v>0.1288104173642545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.029972108460674</v>
+        <v>0.02991699464490801</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>34</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3548913253.466063</v>
+        <v>4794504837.302954</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1631208254126675</v>
+        <v>0.1547402322459878</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01936127724444887</v>
+        <v>0.0219973743697565</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18</v>
+      </c>
+      <c r="J82" t="n">
+        <v>34</v>
+      </c>
+      <c r="K82" t="n">
+        <v>213.9324459779688</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2215566209.454723</v>
+        <v>2112763752.806539</v>
       </c>
       <c r="F83" t="n">
-        <v>0.11560999847781</v>
+        <v>0.1350789842320684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03548444215654539</v>
+        <v>0.0426069833916151</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1770630477.107655</v>
+        <v>2216557536.148831</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094829445053533</v>
+        <v>0.0809310501967108</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04665602869222649</v>
+        <v>0.03165129364416556</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3209106675.879174</v>
+        <v>3206595791.907362</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1257450544797046</v>
+        <v>0.1495570943229338</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03874991611775574</v>
+        <v>0.05051815908695437</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2044235267.873845</v>
+        <v>2119548458.105093</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1732036026744726</v>
+        <v>0.1641964677208695</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02191625401906751</v>
+        <v>0.02525309940549466</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>940689228.4821075</v>
+        <v>1297444451.223336</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1619334796001339</v>
+        <v>0.1625892230596686</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03875147459900328</v>
+        <v>0.03163055658920595</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3491512177.972453</v>
+        <v>2420393618.022637</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1561645720614686</v>
+        <v>0.1340931068759121</v>
       </c>
       <c r="G88" t="n">
-        <v>0.032446580883891</v>
+        <v>0.03358037647136691</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3127534099.216424</v>
+        <v>2191790172.795626</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1599796311838775</v>
+        <v>0.1144844664542732</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04108737224014603</v>
+        <v>0.03092529155730525</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1495580811.510327</v>
+        <v>2018954228.525476</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1146489691539158</v>
+        <v>0.1291129640648582</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05226914999890415</v>
+        <v>0.03723830078977993</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1476265674.199646</v>
+        <v>1917846636.018321</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1524507699403418</v>
+        <v>0.1715232138121871</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04461845461535496</v>
+        <v>0.05574733879608659</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2669569620.616683</v>
+        <v>2455061669.300369</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08782338776098363</v>
+        <v>0.09773447077016943</v>
       </c>
       <c r="G92" t="n">
-        <v>0.036895613712738</v>
+        <v>0.0315170524359474</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4196786887.904354</v>
+        <v>4657425566.945226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1270696959714149</v>
+        <v>0.09900308335965678</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04021451108572039</v>
+        <v>0.04057993476765986</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15</v>
+      </c>
+      <c r="J93" t="n">
+        <v>33</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.0116101818991</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1705199677.541657</v>
+        <v>2426425558.89873</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1616212810095112</v>
+        <v>0.1291058630608874</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03883397394209272</v>
+        <v>0.03336779050847739</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2747458656.300654</v>
+        <v>2994280630.23805</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1222195927260493</v>
+        <v>0.1029384363074664</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0362011260792337</v>
+        <v>0.05097330870687852</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1611261963.971453</v>
+        <v>1681478915.853484</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1015561670636736</v>
+        <v>0.1283873632406152</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03279772188258358</v>
+        <v>0.04352739465010887</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4452412395.456912</v>
+        <v>4740448517.442466</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312350870142496</v>
+        <v>0.1461974619006364</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01991392664637164</v>
+        <v>0.02790982031241308</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>34</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2683608655.117487</v>
+        <v>3899911531.240648</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08248393983284251</v>
+        <v>0.09286996421457183</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0298364217345602</v>
+        <v>0.02588899149576327</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2082940047.944395</v>
+        <v>2432650273.088594</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1087483373763385</v>
+        <v>0.1342318311738009</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03226422904503227</v>
+        <v>0.0309971513859005</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4757732297.249285</v>
+        <v>4419717344.155766</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1671065819447621</v>
+        <v>0.1303605288066144</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0209473445417773</v>
+        <v>0.02307720368408226</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>34</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2653133743.920886</v>
+        <v>3514171928.201357</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1499031060827175</v>
+        <v>0.1886867314095874</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05832435149034848</v>
+        <v>0.05748200878620194</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>32</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
